--- a/paperwork/relations.xlsx
+++ b/paperwork/relations.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dehmer/Development/bmlv.gv.at/virtual-list-example/paperwork/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dehmer/Development/bmlv.gv.at/3c041181/paperwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7CC77A-55AA-B749-B69B-18565D99E865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A165B59-7FA3-954A-A5AF-1E7B7214EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Methods" sheetId="1" r:id="rId1"/>
     <sheet name="Stimuli" sheetId="2" r:id="rId2"/>
-    <sheet name="Effects" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>setOptions</t>
   </si>
@@ -137,10 +136,25 @@
     <t>scroll</t>
   </si>
   <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>scrollTo</t>
+    <t>measurementsCache</t>
+  </si>
+  <si>
+    <t>measureElementCache</t>
+  </si>
+  <si>
+    <t>pendingMeasuredCacheIndexes</t>
+  </si>
+  <si>
+    <t>itemSizeCache</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>WO</t>
   </si>
 </sst>
 </file>
@@ -195,10 +209,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -207,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,6 +248,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,21 +573,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:AE32"/>
+  <dimension ref="C4:AJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" zoomScale="169" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="111" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="30.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="3.6640625" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="30" width="3.6640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="3.6640625" style="11" customWidth="1"/>
+    <col min="32" max="35" width="3.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.83203125" style="6"/>
+    <col min="37" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:31" ht="171" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:35" ht="217" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
@@ -639,11 +675,23 @@
       <c r="AD4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AE4" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AF4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
@@ -674,8 +722,12 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
-    </row>
-    <row r="6" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+    </row>
+    <row r="6" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
@@ -706,8 +758,12 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
-    </row>
-    <row r="7" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+    </row>
+    <row r="7" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
@@ -738,8 +794,12 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
-    </row>
-    <row r="8" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+    </row>
+    <row r="8" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,8 +832,14 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
-    </row>
-    <row r="9" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+    </row>
+    <row r="9" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +876,12 @@
       <c r="AD9" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+    </row>
+    <row r="10" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -842,8 +912,12 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
-    </row>
-    <row r="11" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+    </row>
+    <row r="11" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
@@ -874,8 +948,12 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
-    </row>
-    <row r="12" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+    </row>
+    <row r="12" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
@@ -906,8 +984,12 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
-    </row>
-    <row r="13" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+    </row>
+    <row r="13" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
@@ -942,8 +1024,18 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
-    </row>
-    <row r="14" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AF13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI13" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
@@ -978,8 +1070,12 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
-    </row>
-    <row r="15" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+    </row>
+    <row r="15" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1110,12 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
-    </row>
-    <row r="16" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+    </row>
+    <row r="16" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1148,12 @@
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+    </row>
+    <row r="17" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1080,8 +1184,12 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+    </row>
+    <row r="18" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1116,8 +1224,16 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+    </row>
+    <row r="19" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1152,8 +1268,16 @@
       <c r="AD19" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI19" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,8 +1310,12 @@
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+    </row>
+    <row r="21" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
@@ -1222,8 +1350,12 @@
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+    </row>
+    <row r="22" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1256,8 +1388,12 @@
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+    </row>
+    <row r="23" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1290,8 +1426,12 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+    </row>
+    <row r="24" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1328,8 +1468,12 @@
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+    </row>
+    <row r="25" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1360,8 +1504,12 @@
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+    </row>
+    <row r="26" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1392,8 +1540,12 @@
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+    </row>
+    <row r="27" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1432,8 +1584,12 @@
       <c r="AD27" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+    </row>
+    <row r="28" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1474,8 +1630,14 @@
       <c r="AD28" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+    </row>
+    <row r="29" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1512,8 +1674,12 @@
       <c r="AD29" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+    </row>
+    <row r="30" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,8 +1712,12 @@
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+    </row>
+    <row r="31" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>26</v>
       </c>
@@ -1578,14 +1748,27 @@
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+    </row>
+    <row r="32" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="32:32" x14ac:dyDescent="0.25">
+      <c r="AF33" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1656,27 +1839,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ACC0C6-FAB6-8341-A88B-BE530110A2D6}">
-  <dimension ref="B4:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/paperwork/relations.xlsx
+++ b/paperwork/relations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dehmer/Development/bmlv.gv.at/3c041181/paperwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A165B59-7FA3-954A-A5AF-1E7B7214EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD8210E-9532-3C4E-B512-A69892D52BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:AJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="111" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="150" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
